--- a/OneNote/OneNote Mobile/万豪.xlsx
+++ b/OneNote/OneNote Mobile/万豪.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>于学军</t>
   </si>
@@ -57,6 +57,14 @@
   </si>
   <si>
     <t>蔡文杰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李英杰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>于学军</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -447,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E19"/>
+  <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -598,66 +606,81 @@
       <c r="D13" s="4">
         <v>70000</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="2:5" ht="14.25" thickBot="1">
       <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4">
+      <c r="C14" s="4">
+        <v>120000</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B15" s="3">
+        <v>20120718</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
         <v>50000</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B15" s="3"/>
-      <c r="C15" s="4">
+    <row r="16" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B16" s="3">
+        <v>20120818</v>
+      </c>
+      <c r="C16" s="4">
         <v>50000</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-    </row>
     <row r="17" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B17" s="3"/>
+      <c r="B17" s="3">
+        <v>20130205</v>
+      </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="4">
+        <v>30000</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="2:5" ht="14.25" thickBot="1">
       <c r="B18" s="3"/>
-      <c r="C18" s="4">
-        <f>SUM(C3:C17)</f>
-        <v>935000</v>
-      </c>
-      <c r="D18" s="4">
-        <f>SUM(D3:D17)</f>
-        <v>120000</v>
-      </c>
-      <c r="E18" s="4">
-        <f>C18-D18</f>
-        <v>815000</v>
-      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B19" s="3">
-        <v>20110603</v>
-      </c>
+      <c r="B19" s="3"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="4">
-        <v>60000</v>
-      </c>
-      <c r="E19" s="4">
-        <f>E18-D19</f>
-        <v>755000</v>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4">
+        <f>SUM(C3:C19)</f>
+        <v>1055000</v>
+      </c>
+      <c r="D20" s="4">
+        <f>SUM(D3:D19)</f>
+        <v>150000</v>
+      </c>
+      <c r="E20" s="4">
+        <f>C20-D20</f>
+        <v>905000</v>
       </c>
     </row>
   </sheetData>
@@ -669,12 +692,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:5" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B2" s="3">
+        <v>20110603</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
+        <v>60000</v>
+      </c>
+      <c r="E2" s="4">
+        <f>Sheet1!E20-D2</f>
+        <v>845000</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
